--- a/Data/aearep-1584/candidatepackages.xlsx
+++ b/Data/aearep-1584/candidatepackages.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>coefplot</t>
   </si>
   <si>
@@ -40,43 +34,43 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>norm</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
-    <t>sq</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
-    <t>norm</t>
+    <t>vallab</t>
+  </si>
+  <si>
+    <t>white</t>
   </si>
   <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>vallab</t>
+    <t>cic</t>
+  </si>
+  <si>
+    <t>ic</t>
   </si>
   <si>
     <t>running</t>
   </si>
   <si>
-    <t>poverty</t>
-  </si>
-  <si>
-    <t>ic</t>
-  </si>
-  <si>
-    <t>cic</t>
+    <t>median</t>
   </si>
   <si>
     <t>index</t>
@@ -85,45 +79,36 @@
     <t>heart</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>flowchart</t>
   </si>
   <si>
+    <t>dict</t>
+  </si>
+  <si>
     <t>pre</t>
   </si>
   <si>
-    <t>dict</t>
+    <t>effects</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>effects</t>
+    <t>adjust</t>
+  </si>
+  <si>
+    <t>unemp</t>
+  </si>
+  <si>
+    <t>next</t>
   </si>
   <si>
     <t>er</t>
   </si>
   <si>
-    <t>adjust</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>unemp</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -142,27 +127,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1584</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1584/126841/code-files/auxiliary-files</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1584/126841/code-files/main-files</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1584/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>2_2_build_programs.do</t>
   </si>
   <si>
@@ -185,9 +158,6 @@
   </si>
   <si>
     <t>1_5_shell_for_analysis.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -231,7 +201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -239,13 +209,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -253,7 +223,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -265,7 +235,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -277,7 +247,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -289,7 +259,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -301,7 +271,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -313,10 +283,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>499</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D7"/>
     </row>
@@ -325,10 +295,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>525</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D8"/>
     </row>
@@ -337,10 +307,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>279</v>
+        <v>529</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D9"/>
     </row>
@@ -349,10 +319,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="C10">
-        <v>0.16677719354629517</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D10"/>
     </row>
@@ -361,10 +331,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="C11">
-        <v>0.18667109310626984</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D11"/>
     </row>
@@ -373,10 +343,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C12">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D12"/>
     </row>
@@ -385,10 +355,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>566</v>
+        <v>692</v>
       </c>
       <c r="C13">
-        <v>0.18766577541828156</v>
+        <v>0.22876033186912537</v>
       </c>
       <c r="D13"/>
     </row>
@@ -397,10 +367,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>594</v>
+        <v>712</v>
       </c>
       <c r="C14">
-        <v>0.19694960117340088</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D14"/>
     </row>
@@ -409,10 +379,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>698</v>
+        <v>746</v>
       </c>
       <c r="C15">
-        <v>0.23143236339092255</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D15"/>
     </row>
@@ -421,10 +391,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="C16">
-        <v>0.24701590836048126</v>
+        <v>0.25388428568840027</v>
       </c>
       <c r="D16"/>
     </row>
@@ -433,10 +403,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>762</v>
+        <v>852</v>
       </c>
       <c r="C17">
-        <v>0.25265252590179443</v>
+        <v>0.28165289759635925</v>
       </c>
       <c r="D17"/>
     </row>
@@ -445,10 +415,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>797</v>
+        <v>884</v>
       </c>
       <c r="C18">
-        <v>0.2642572820186615</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D18"/>
     </row>
@@ -457,10 +427,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>811</v>
+        <v>955</v>
       </c>
       <c r="C19">
-        <v>0.26889920234680176</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D19"/>
     </row>
@@ -469,10 +439,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>839</v>
+        <v>998</v>
       </c>
       <c r="C20">
-        <v>0.27818301320075989</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D20"/>
     </row>
@@ -481,10 +451,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>861</v>
+        <v>1101</v>
       </c>
       <c r="C21">
-        <v>0.28547745943069458</v>
+        <v>0.36396694183349609</v>
       </c>
       <c r="D21"/>
     </row>
@@ -493,10 +463,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>985</v>
+        <v>1191</v>
       </c>
       <c r="C22">
-        <v>0.32659152150154114</v>
+        <v>0.39371901750564575</v>
       </c>
       <c r="D22"/>
     </row>
@@ -505,10 +475,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1049</v>
+        <v>1307</v>
       </c>
       <c r="C23">
-        <v>0.34781166911125183</v>
+        <v>0.43206611275672913</v>
       </c>
       <c r="D23"/>
     </row>
@@ -517,10 +487,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1124</v>
+        <v>1428</v>
       </c>
       <c r="C24">
-        <v>0.37267905473709106</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D24"/>
     </row>
@@ -529,10 +499,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1133</v>
+        <v>1497</v>
       </c>
       <c r="C25">
-        <v>0.37566313147544861</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D25"/>
     </row>
@@ -541,10 +511,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1247</v>
+        <v>1658</v>
       </c>
       <c r="C26">
-        <v>0.41346153616905212</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D26"/>
     </row>
@@ -553,10 +523,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1553</v>
+        <v>1678</v>
       </c>
       <c r="C27">
-        <v>0.51492041349411011</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D27"/>
     </row>
@@ -565,10 +535,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1591</v>
+        <v>1796</v>
       </c>
       <c r="C28">
-        <v>0.52751988172531128</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D28"/>
     </row>
@@ -577,10 +547,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1621</v>
+        <v>1838</v>
       </c>
       <c r="C29">
-        <v>0.53746682405471802</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D29"/>
     </row>
@@ -589,10 +559,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1660</v>
+        <v>1880</v>
       </c>
       <c r="C30">
-        <v>0.55039787292480469</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D30"/>
     </row>
@@ -601,10 +571,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1753</v>
+        <v>1904</v>
       </c>
       <c r="C31">
-        <v>0.5812334418296814</v>
+        <v>0.62942147254943848</v>
       </c>
       <c r="D31"/>
     </row>
@@ -613,10 +583,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1793</v>
+        <v>2436</v>
       </c>
       <c r="C32">
-        <v>0.59449601173400879</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D32"/>
     </row>
@@ -625,72 +595,12 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1798</v>
+        <v>2977</v>
       </c>
       <c r="C33">
-        <v>0.5961538553237915</v>
+        <v>0.98413223028182983</v>
       </c>
       <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1817</v>
-      </c>
-      <c r="C34">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1859</v>
-      </c>
-      <c r="C35">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2000</v>
-      </c>
-      <c r="C36">
-        <v>0.66312998533248901</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2424</v>
-      </c>
-      <c r="C37">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>2989</v>
-      </c>
-      <c r="C38">
-        <v>0.99104773998260498</v>
-      </c>
-      <c r="D38"/>
     </row>
   </sheetData>
 </worksheet>
@@ -698,103 +608,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
